--- a/data/marijuana applicants test data - correct matches.xlsx
+++ b/data/marijuana applicants test data - correct matches.xlsx
@@ -29,15 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="6">
   <si>
-    <t>List 1 Record ID</t>
-  </si>
-  <si>
-    <t>List 2 Record ID</t>
-  </si>
-  <si>
-    <t>Match Type</t>
-  </si>
-  <si>
     <t>Exact</t>
   </si>
   <si>
@@ -45,6 +36,15 @@
   </si>
   <si>
     <t>Standardized Exact</t>
+  </si>
+  <si>
+    <t>Match_Type</t>
+  </si>
+  <si>
+    <t>Record_ID_list_1</t>
+  </si>
+  <si>
+    <t>Record_ID_list_2</t>
   </si>
 </sst>
 </file>
@@ -365,8 +365,8 @@
   <dimension ref="A1:C630"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A630" sqref="A630"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,13 +377,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +504,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +515,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +625,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +702,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,7 +746,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,7 +801,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,7 +900,7 @@
         <v>646</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>538</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,7 +977,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1065,7 +1065,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1098,7 +1098,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,7 +1109,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1131,7 +1131,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1263,7 +1263,7 @@
         <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,7 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>85</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +1329,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +1351,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +1373,7 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>665</v>
       </c>
       <c r="C92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>303</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +1439,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1483,7 +1483,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1516,7 +1516,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1538,7 +1538,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +1604,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,7 +1637,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1681,7 +1681,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1703,7 +1703,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1725,7 +1725,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1780,7 +1780,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1791,7 +1791,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1813,7 +1813,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1857,7 +1857,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,7 +1868,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1901,7 +1901,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1923,7 +1923,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,7 +1945,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1956,7 +1956,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,7 +1967,7 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -1989,7 +1989,7 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2044,7 +2044,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,7 +2055,7 @@
         <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2088,7 +2088,7 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2099,7 +2099,7 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,7 +2132,7 @@
         <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,7 +2143,7 @@
         <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2165,7 +2165,7 @@
         <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
         <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2209,7 +2209,7 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2220,7 +2220,7 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2231,7 +2231,7 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -2253,7 +2253,7 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -2275,7 +2275,7 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
         <v>666</v>
       </c>
       <c r="C176" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2319,7 +2319,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,7 +2330,7 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -2363,7 +2363,7 @@
         <v>184</v>
       </c>
       <c r="C181" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>185</v>
       </c>
       <c r="C182" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>186</v>
       </c>
       <c r="C183" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>187</v>
       </c>
       <c r="C184" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2418,7 +2418,7 @@
         <v>189</v>
       </c>
       <c r="C186" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2429,7 +2429,7 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -2440,7 +2440,7 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,7 @@
         <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
         <v>195</v>
       </c>
       <c r="C191" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>196</v>
       </c>
       <c r="C192" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>197</v>
       </c>
       <c r="C193" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
         <v>198</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>199</v>
       </c>
       <c r="C195" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -2528,7 +2528,7 @@
         <v>201</v>
       </c>
       <c r="C196" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
         <v>202</v>
       </c>
       <c r="C197" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -2550,7 +2550,7 @@
         <v>203</v>
       </c>
       <c r="C198" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>204</v>
       </c>
       <c r="C199" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2572,7 +2572,7 @@
         <v>205</v>
       </c>
       <c r="C200" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -2583,7 +2583,7 @@
         <v>206</v>
       </c>
       <c r="C201" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -2594,7 +2594,7 @@
         <v>207</v>
       </c>
       <c r="C202" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
         <v>208</v>
       </c>
       <c r="C203" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>209</v>
       </c>
       <c r="C204" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -2627,7 +2627,7 @@
         <v>210</v>
       </c>
       <c r="C205" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2638,7 +2638,7 @@
         <v>211</v>
       </c>
       <c r="C206" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2649,7 +2649,7 @@
         <v>212</v>
       </c>
       <c r="C207" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2660,7 +2660,7 @@
         <v>213</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,7 +2682,7 @@
         <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>216</v>
       </c>
       <c r="C211" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>217</v>
       </c>
       <c r="C212" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>218</v>
       </c>
       <c r="C213" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>219</v>
       </c>
       <c r="C214" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
         <v>220</v>
       </c>
       <c r="C215" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>221</v>
       </c>
       <c r="C216" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>222</v>
       </c>
       <c r="C217" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
         <v>223</v>
       </c>
       <c r="C218" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>224</v>
       </c>
       <c r="C219" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>226</v>
       </c>
       <c r="C220" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -2803,7 +2803,7 @@
         <v>227</v>
       </c>
       <c r="C221" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -2814,7 +2814,7 @@
         <v>228</v>
       </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>229</v>
       </c>
       <c r="C223" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>230</v>
       </c>
       <c r="C224" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
         <v>231</v>
       </c>
       <c r="C225" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -2858,7 +2858,7 @@
         <v>232</v>
       </c>
       <c r="C226" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>233</v>
       </c>
       <c r="C227" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -2880,7 +2880,7 @@
         <v>234</v>
       </c>
       <c r="C228" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -2891,7 +2891,7 @@
         <v>235</v>
       </c>
       <c r="C229" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
         <v>236</v>
       </c>
       <c r="C230" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>237</v>
       </c>
       <c r="C231" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>238</v>
       </c>
       <c r="C232" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>239</v>
       </c>
       <c r="C233" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -2946,7 +2946,7 @@
         <v>240</v>
       </c>
       <c r="C234" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v>241</v>
       </c>
       <c r="C235" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>242</v>
       </c>
       <c r="C236" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,7 +2979,7 @@
         <v>243</v>
       </c>
       <c r="C237" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>244</v>
       </c>
       <c r="C238" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3001,7 +3001,7 @@
         <v>245</v>
       </c>
       <c r="C239" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3012,7 +3012,7 @@
         <v>246</v>
       </c>
       <c r="C240" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3023,7 +3023,7 @@
         <v>247</v>
       </c>
       <c r="C241" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
         <v>248</v>
       </c>
       <c r="C242" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>249</v>
       </c>
       <c r="C243" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,7 +3056,7 @@
         <v>250</v>
       </c>
       <c r="C244" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
         <v>251</v>
       </c>
       <c r="C245" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -3078,7 +3078,7 @@
         <v>253</v>
       </c>
       <c r="C246" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>254</v>
       </c>
       <c r="C247" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3100,7 +3100,7 @@
         <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>257</v>
       </c>
       <c r="C249" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3122,7 +3122,7 @@
         <v>258</v>
       </c>
       <c r="C250" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>259</v>
       </c>
       <c r="C251" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3144,7 +3144,7 @@
         <v>261</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,7 +3155,7 @@
         <v>262</v>
       </c>
       <c r="C253" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>263</v>
       </c>
       <c r="C254" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>264</v>
       </c>
       <c r="C255" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,7 +3188,7 @@
         <v>265</v>
       </c>
       <c r="C256" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3199,7 +3199,7 @@
         <v>267</v>
       </c>
       <c r="C257" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3210,7 +3210,7 @@
         <v>268</v>
       </c>
       <c r="C258" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3221,7 +3221,7 @@
         <v>269</v>
       </c>
       <c r="C259" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3232,7 +3232,7 @@
         <v>270</v>
       </c>
       <c r="C260" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>271</v>
       </c>
       <c r="C261" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3254,7 +3254,7 @@
         <v>272</v>
       </c>
       <c r="C262" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>273</v>
       </c>
       <c r="C263" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3276,7 @@
         <v>274</v>
       </c>
       <c r="C264" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3287,7 +3287,7 @@
         <v>275</v>
       </c>
       <c r="C265" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
         <v>276</v>
       </c>
       <c r="C266" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3309,7 +3309,7 @@
         <v>277</v>
       </c>
       <c r="C267" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3320,7 +3320,7 @@
         <v>278</v>
       </c>
       <c r="C268" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>279</v>
       </c>
       <c r="C269" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -3342,7 +3342,7 @@
         <v>280</v>
       </c>
       <c r="C270" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3353,7 +3353,7 @@
         <v>281</v>
       </c>
       <c r="C271" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3364,7 +3364,7 @@
         <v>283</v>
       </c>
       <c r="C272" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -3375,7 +3375,7 @@
         <v>284</v>
       </c>
       <c r="C273" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3386,7 +3386,7 @@
         <v>285</v>
       </c>
       <c r="C274" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>286</v>
       </c>
       <c r="C275" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>287</v>
       </c>
       <c r="C276" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>288</v>
       </c>
       <c r="C277" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3430,7 +3430,7 @@
         <v>289</v>
       </c>
       <c r="C278" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,7 +3441,7 @@
         <v>290</v>
       </c>
       <c r="C279" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,7 +3452,7 @@
         <v>292</v>
       </c>
       <c r="C280" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,7 +3463,7 @@
         <v>293</v>
       </c>
       <c r="C281" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,7 +3474,7 @@
         <v>294</v>
       </c>
       <c r="C282" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>295</v>
       </c>
       <c r="C283" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,7 +3496,7 @@
         <v>296</v>
       </c>
       <c r="C284" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>297</v>
       </c>
       <c r="C285" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>298</v>
       </c>
       <c r="C286" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>299</v>
       </c>
       <c r="C287" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>300</v>
       </c>
       <c r="C288" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3551,7 +3551,7 @@
         <v>301</v>
       </c>
       <c r="C289" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3562,7 +3562,7 @@
         <v>302</v>
       </c>
       <c r="C290" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -3573,7 +3573,7 @@
         <v>303</v>
       </c>
       <c r="C291" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3584,7 +3584,7 @@
         <v>304</v>
       </c>
       <c r="C292" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -3595,7 +3595,7 @@
         <v>305</v>
       </c>
       <c r="C293" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,7 +3606,7 @@
         <v>306</v>
       </c>
       <c r="C294" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
         <v>307</v>
       </c>
       <c r="C295" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
         <v>308</v>
       </c>
       <c r="C296" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>309</v>
       </c>
       <c r="C297" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -3650,7 +3650,7 @@
         <v>310</v>
       </c>
       <c r="C298" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -3661,7 +3661,7 @@
         <v>311</v>
       </c>
       <c r="C299" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3672,7 +3672,7 @@
         <v>312</v>
       </c>
       <c r="C300" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
         <v>313</v>
       </c>
       <c r="C301" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3694,7 @@
         <v>314</v>
       </c>
       <c r="C302" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3705,7 +3705,7 @@
         <v>315</v>
       </c>
       <c r="C303" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,7 +3716,7 @@
         <v>316</v>
       </c>
       <c r="C304" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3727,7 +3727,7 @@
         <v>317</v>
       </c>
       <c r="C305" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>318</v>
       </c>
       <c r="C306" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,7 +3749,7 @@
         <v>319</v>
       </c>
       <c r="C307" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +3760,7 @@
         <v>320</v>
       </c>
       <c r="C308" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
         <v>321</v>
       </c>
       <c r="C309" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,7 +3782,7 @@
         <v>322</v>
       </c>
       <c r="C310" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -3793,7 +3793,7 @@
         <v>323</v>
       </c>
       <c r="C311" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -3804,7 +3804,7 @@
         <v>324</v>
       </c>
       <c r="C312" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>325</v>
       </c>
       <c r="C313" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
         <v>326</v>
       </c>
       <c r="C314" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>327</v>
       </c>
       <c r="C315" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3848,7 @@
         <v>328</v>
       </c>
       <c r="C316" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +3859,7 @@
         <v>329</v>
       </c>
       <c r="C317" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3870,7 @@
         <v>330</v>
       </c>
       <c r="C318" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>331</v>
       </c>
       <c r="C319" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>335</v>
       </c>
       <c r="C320" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>336</v>
       </c>
       <c r="C321" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -3914,7 +3914,7 @@
         <v>337</v>
       </c>
       <c r="C322" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -3925,7 +3925,7 @@
         <v>338</v>
       </c>
       <c r="C323" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -3936,7 +3936,7 @@
         <v>339</v>
       </c>
       <c r="C324" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -3947,7 +3947,7 @@
         <v>340</v>
       </c>
       <c r="C325" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -3958,7 +3958,7 @@
         <v>341</v>
       </c>
       <c r="C326" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -3969,7 +3969,7 @@
         <v>342</v>
       </c>
       <c r="C327" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -3980,7 +3980,7 @@
         <v>343</v>
       </c>
       <c r="C328" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -3991,7 +3991,7 @@
         <v>344</v>
       </c>
       <c r="C329" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>345</v>
       </c>
       <c r="C330" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -4013,7 +4013,7 @@
         <v>346</v>
       </c>
       <c r="C331" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4024,7 +4024,7 @@
         <v>347</v>
       </c>
       <c r="C332" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4035,7 +4035,7 @@
         <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>350</v>
       </c>
       <c r="C334" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4057,7 +4057,7 @@
         <v>351</v>
       </c>
       <c r="C335" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -4068,7 +4068,7 @@
         <v>352</v>
       </c>
       <c r="C336" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -4079,7 +4079,7 @@
         <v>353</v>
       </c>
       <c r="C337" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>354</v>
       </c>
       <c r="C338" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4101,7 +4101,7 @@
         <v>355</v>
       </c>
       <c r="C339" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -4123,7 +4123,7 @@
         <v>357</v>
       </c>
       <c r="C341" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -4134,7 +4134,7 @@
         <v>358</v>
       </c>
       <c r="C342" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -4145,7 +4145,7 @@
         <v>359</v>
       </c>
       <c r="C343" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4156,7 +4156,7 @@
         <v>360</v>
       </c>
       <c r="C344" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4167,7 +4167,7 @@
         <v>361</v>
       </c>
       <c r="C345" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4178,7 +4178,7 @@
         <v>362</v>
       </c>
       <c r="C346" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -4189,7 +4189,7 @@
         <v>363</v>
       </c>
       <c r="C347" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -4200,7 +4200,7 @@
         <v>364</v>
       </c>
       <c r="C348" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -4211,7 +4211,7 @@
         <v>365</v>
       </c>
       <c r="C349" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4222,7 +4222,7 @@
         <v>366</v>
       </c>
       <c r="C350" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4233,7 +4233,7 @@
         <v>367</v>
       </c>
       <c r="C351" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>368</v>
       </c>
       <c r="C352" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4255,7 +4255,7 @@
         <v>369</v>
       </c>
       <c r="C353" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4266,7 +4266,7 @@
         <v>370</v>
       </c>
       <c r="C354" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>371</v>
       </c>
       <c r="C355" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>667</v>
       </c>
       <c r="C356" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <v>372</v>
       </c>
       <c r="C357" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4310,7 +4310,7 @@
         <v>373</v>
       </c>
       <c r="C358" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>374</v>
       </c>
       <c r="C359" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4332,7 +4332,7 @@
         <v>375</v>
       </c>
       <c r="C360" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4343,7 +4343,7 @@
         <v>376</v>
       </c>
       <c r="C361" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
         <v>377</v>
       </c>
       <c r="C362" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
         <v>378</v>
       </c>
       <c r="C363" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,7 +4376,7 @@
         <v>379</v>
       </c>
       <c r="C364" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -4387,7 +4387,7 @@
         <v>380</v>
       </c>
       <c r="C365" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -4398,7 +4398,7 @@
         <v>381</v>
       </c>
       <c r="C366" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>382</v>
       </c>
       <c r="C367" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -4420,7 +4420,7 @@
         <v>383</v>
       </c>
       <c r="C368" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -4431,7 +4431,7 @@
         <v>385</v>
       </c>
       <c r="C369" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
         <v>386</v>
       </c>
       <c r="C370" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -4453,7 +4453,7 @@
         <v>388</v>
       </c>
       <c r="C371" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -4464,7 +4464,7 @@
         <v>61</v>
       </c>
       <c r="C372" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -4475,7 +4475,7 @@
         <v>390</v>
       </c>
       <c r="C373" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
         <v>391</v>
       </c>
       <c r="C374" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -4497,7 +4497,7 @@
         <v>392</v>
       </c>
       <c r="C375" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -4508,7 +4508,7 @@
         <v>393</v>
       </c>
       <c r="C376" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -4519,7 +4519,7 @@
         <v>395</v>
       </c>
       <c r="C377" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -4530,7 +4530,7 @@
         <v>396</v>
       </c>
       <c r="C378" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -4541,7 +4541,7 @@
         <v>397</v>
       </c>
       <c r="C379" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -4552,7 +4552,7 @@
         <v>398</v>
       </c>
       <c r="C380" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
         <v>399</v>
       </c>
       <c r="C381" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -4574,7 +4574,7 @@
         <v>400</v>
       </c>
       <c r="C382" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -4585,7 +4585,7 @@
         <v>401</v>
       </c>
       <c r="C383" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -4596,7 +4596,7 @@
         <v>402</v>
       </c>
       <c r="C384" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -4607,7 +4607,7 @@
         <v>403</v>
       </c>
       <c r="C385" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
         <v>404</v>
       </c>
       <c r="C386" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -4629,7 +4629,7 @@
         <v>405</v>
       </c>
       <c r="C387" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,7 +4640,7 @@
         <v>406</v>
       </c>
       <c r="C388" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>617</v>
       </c>
       <c r="C389" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,7 +4662,7 @@
         <v>407</v>
       </c>
       <c r="C390" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
         <v>408</v>
       </c>
       <c r="C391" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -4684,7 +4684,7 @@
         <v>409</v>
       </c>
       <c r="C392" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>410</v>
       </c>
       <c r="C393" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,7 +4706,7 @@
         <v>411</v>
       </c>
       <c r="C394" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,7 +4717,7 @@
         <v>412</v>
       </c>
       <c r="C395" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,7 +4728,7 @@
         <v>413</v>
       </c>
       <c r="C396" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -4739,7 +4739,7 @@
         <v>415</v>
       </c>
       <c r="C397" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4750,7 @@
         <v>416</v>
       </c>
       <c r="C398" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -4761,7 +4761,7 @@
         <v>417</v>
       </c>
       <c r="C399" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>418</v>
       </c>
       <c r="C400" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>419</v>
       </c>
       <c r="C401" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -4794,7 +4794,7 @@
         <v>421</v>
       </c>
       <c r="C402" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,7 +4805,7 @@
         <v>422</v>
       </c>
       <c r="C403" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>45</v>
       </c>
       <c r="C404" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,7 +4827,7 @@
         <v>423</v>
       </c>
       <c r="C405" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -4838,7 +4838,7 @@
         <v>424</v>
       </c>
       <c r="C406" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,7 +4849,7 @@
         <v>426</v>
       </c>
       <c r="C407" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -4860,7 +4860,7 @@
         <v>427</v>
       </c>
       <c r="C408" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -4871,7 +4871,7 @@
         <v>428</v>
       </c>
       <c r="C409" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
         <v>429</v>
       </c>
       <c r="C410" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,7 +4893,7 @@
         <v>430</v>
       </c>
       <c r="C411" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -4904,7 +4904,7 @@
         <v>431</v>
       </c>
       <c r="C412" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -4915,7 +4915,7 @@
         <v>432</v>
       </c>
       <c r="C413" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,7 +4926,7 @@
         <v>433</v>
       </c>
       <c r="C414" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
         <v>434</v>
       </c>
       <c r="C415" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -4948,7 +4948,7 @@
         <v>435</v>
       </c>
       <c r="C416" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -4959,7 +4959,7 @@
         <v>436</v>
       </c>
       <c r="C417" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -4970,7 +4970,7 @@
         <v>437</v>
       </c>
       <c r="C418" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
         <v>438</v>
       </c>
       <c r="C419" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,7 +4992,7 @@
         <v>439</v>
       </c>
       <c r="C420" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -5003,7 +5003,7 @@
         <v>440</v>
       </c>
       <c r="C421" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -5014,7 +5014,7 @@
         <v>441</v>
       </c>
       <c r="C422" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -5025,7 +5025,7 @@
         <v>442</v>
       </c>
       <c r="C423" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,7 +5036,7 @@
         <v>443</v>
       </c>
       <c r="C424" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -5047,7 +5047,7 @@
         <v>444</v>
       </c>
       <c r="C425" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,7 +5058,7 @@
         <v>445</v>
       </c>
       <c r="C426" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,7 +5069,7 @@
         <v>446</v>
       </c>
       <c r="C427" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -5080,7 +5080,7 @@
         <v>448</v>
       </c>
       <c r="C428" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -5091,7 +5091,7 @@
         <v>449</v>
       </c>
       <c r="C429" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>450</v>
       </c>
       <c r="C430" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -5113,7 +5113,7 @@
         <v>451</v>
       </c>
       <c r="C431" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -5124,7 +5124,7 @@
         <v>453</v>
       </c>
       <c r="C432" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -5135,7 +5135,7 @@
         <v>454</v>
       </c>
       <c r="C433" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
         <v>455</v>
       </c>
       <c r="C434" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,7 +5157,7 @@
         <v>456</v>
       </c>
       <c r="C435" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
         <v>457</v>
       </c>
       <c r="C436" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
         <v>444</v>
       </c>
       <c r="C437" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>458</v>
       </c>
       <c r="C438" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
         <v>459</v>
       </c>
       <c r="C439" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -5212,7 +5212,7 @@
         <v>460</v>
       </c>
       <c r="C440" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v>462</v>
       </c>
       <c r="C441" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>668</v>
       </c>
       <c r="C442" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -5245,7 +5245,7 @@
         <v>463</v>
       </c>
       <c r="C443" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -5256,7 +5256,7 @@
         <v>464</v>
       </c>
       <c r="C444" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -5267,7 +5267,7 @@
         <v>465</v>
       </c>
       <c r="C445" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -5278,7 +5278,7 @@
         <v>466</v>
       </c>
       <c r="C446" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -5289,7 +5289,7 @@
         <v>467</v>
       </c>
       <c r="C447" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
         <v>468</v>
       </c>
       <c r="C448" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -5311,7 +5311,7 @@
         <v>469</v>
       </c>
       <c r="C449" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,7 +5322,7 @@
         <v>470</v>
       </c>
       <c r="C450" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,7 +5333,7 @@
         <v>471</v>
       </c>
       <c r="C451" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>472</v>
       </c>
       <c r="C452" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,7 +5355,7 @@
         <v>473</v>
       </c>
       <c r="C453" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,7 +5366,7 @@
         <v>474</v>
       </c>
       <c r="C454" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,7 +5377,7 @@
         <v>475</v>
       </c>
       <c r="C455" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,7 +5388,7 @@
         <v>476</v>
       </c>
       <c r="C456" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
         <v>477</v>
       </c>
       <c r="C457" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -5410,7 +5410,7 @@
         <v>478</v>
       </c>
       <c r="C458" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,7 +5421,7 @@
         <v>479</v>
       </c>
       <c r="C459" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,7 +5432,7 @@
         <v>480</v>
       </c>
       <c r="C460" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,7 +5443,7 @@
         <v>482</v>
       </c>
       <c r="C461" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,7 +5454,7 @@
         <v>483</v>
       </c>
       <c r="C462" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,7 +5465,7 @@
         <v>484</v>
       </c>
       <c r="C463" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -5476,7 +5476,7 @@
         <v>485</v>
       </c>
       <c r="C464" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>487</v>
       </c>
       <c r="C465" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -5498,7 +5498,7 @@
         <v>276</v>
       </c>
       <c r="C466" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -5509,7 +5509,7 @@
         <v>490</v>
       </c>
       <c r="C467" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,7 +5520,7 @@
         <v>492</v>
       </c>
       <c r="C468" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -5531,7 +5531,7 @@
         <v>493</v>
       </c>
       <c r="C469" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>495</v>
       </c>
       <c r="C470" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,7 +5553,7 @@
         <v>496</v>
       </c>
       <c r="C471" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -5564,7 +5564,7 @@
         <v>497</v>
       </c>
       <c r="C472" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -5575,7 +5575,7 @@
         <v>498</v>
       </c>
       <c r="C473" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -5586,7 +5586,7 @@
         <v>499</v>
       </c>
       <c r="C474" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
         <v>500</v>
       </c>
       <c r="C475" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -5608,7 +5608,7 @@
         <v>502</v>
       </c>
       <c r="C476" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -5619,7 +5619,7 @@
         <v>503</v>
       </c>
       <c r="C477" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -5630,7 +5630,7 @@
         <v>504</v>
       </c>
       <c r="C478" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -5641,7 +5641,7 @@
         <v>505</v>
       </c>
       <c r="C479" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -5652,7 +5652,7 @@
         <v>506</v>
       </c>
       <c r="C480" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -5663,7 +5663,7 @@
         <v>508</v>
       </c>
       <c r="C481" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
         <v>509</v>
       </c>
       <c r="C482" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -5685,7 +5685,7 @@
         <v>510</v>
       </c>
       <c r="C483" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
         <v>511</v>
       </c>
       <c r="C484" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -5707,7 +5707,7 @@
         <v>512</v>
       </c>
       <c r="C485" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -5718,7 +5718,7 @@
         <v>513</v>
       </c>
       <c r="C486" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -5729,7 +5729,7 @@
         <v>514</v>
       </c>
       <c r="C487" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>515</v>
       </c>
       <c r="C488" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,7 +5751,7 @@
         <v>516</v>
       </c>
       <c r="C489" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -5762,7 +5762,7 @@
         <v>518</v>
       </c>
       <c r="C490" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,7 +5773,7 @@
         <v>519</v>
       </c>
       <c r="C491" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>520</v>
       </c>
       <c r="C492" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -5795,7 +5795,7 @@
         <v>521</v>
       </c>
       <c r="C493" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -5806,7 +5806,7 @@
         <v>522</v>
       </c>
       <c r="C494" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -5817,7 +5817,7 @@
         <v>523</v>
       </c>
       <c r="C495" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -5828,7 +5828,7 @@
         <v>524</v>
       </c>
       <c r="C496" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -5839,7 +5839,7 @@
         <v>527</v>
       </c>
       <c r="C497" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -5850,7 +5850,7 @@
         <v>528</v>
       </c>
       <c r="C498" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -5861,7 +5861,7 @@
         <v>529</v>
       </c>
       <c r="C499" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
         <v>530</v>
       </c>
       <c r="C500" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -5883,7 +5883,7 @@
         <v>531</v>
       </c>
       <c r="C501" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,7 +5894,7 @@
         <v>532</v>
       </c>
       <c r="C502" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -5905,7 +5905,7 @@
         <v>533</v>
       </c>
       <c r="C503" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -5916,7 +5916,7 @@
         <v>534</v>
       </c>
       <c r="C504" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -5927,7 +5927,7 @@
         <v>535</v>
       </c>
       <c r="C505" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -5938,7 +5938,7 @@
         <v>536</v>
       </c>
       <c r="C506" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -5949,7 +5949,7 @@
         <v>537</v>
       </c>
       <c r="C507" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -5960,7 +5960,7 @@
         <v>538</v>
       </c>
       <c r="C508" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -5971,7 +5971,7 @@
         <v>539</v>
       </c>
       <c r="C509" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -5982,7 +5982,7 @@
         <v>541</v>
       </c>
       <c r="C510" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -5993,7 +5993,7 @@
         <v>542</v>
       </c>
       <c r="C511" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -6004,7 +6004,7 @@
         <v>543</v>
       </c>
       <c r="C512" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -6015,7 +6015,7 @@
         <v>544</v>
       </c>
       <c r="C513" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>545</v>
       </c>
       <c r="C514" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,7 +6037,7 @@
         <v>546</v>
       </c>
       <c r="C515" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -6048,7 +6048,7 @@
         <v>548</v>
       </c>
       <c r="C516" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -6059,7 +6059,7 @@
         <v>549</v>
       </c>
       <c r="C517" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -6070,7 +6070,7 @@
         <v>550</v>
       </c>
       <c r="C518" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -6081,7 +6081,7 @@
         <v>551</v>
       </c>
       <c r="C519" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -6092,7 +6092,7 @@
         <v>553</v>
       </c>
       <c r="C520" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -6103,7 +6103,7 @@
         <v>554</v>
       </c>
       <c r="C521" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -6114,7 +6114,7 @@
         <v>555</v>
       </c>
       <c r="C522" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>556</v>
       </c>
       <c r="C523" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -6136,7 +6136,7 @@
         <v>558</v>
       </c>
       <c r="C524" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6147,7 +6147,7 @@
         <v>559</v>
       </c>
       <c r="C525" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -6158,7 +6158,7 @@
         <v>560</v>
       </c>
       <c r="C526" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -6169,7 +6169,7 @@
         <v>561</v>
       </c>
       <c r="C527" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>562</v>
       </c>
       <c r="C528" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6191,7 +6191,7 @@
         <v>563</v>
       </c>
       <c r="C529" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6202,7 +6202,7 @@
         <v>564</v>
       </c>
       <c r="C530" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
         <v>669</v>
       </c>
       <c r="C531" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6224,7 +6224,7 @@
         <v>565</v>
       </c>
       <c r="C532" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>566</v>
       </c>
       <c r="C533" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6246,7 +6246,7 @@
         <v>567</v>
       </c>
       <c r="C534" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,7 +6257,7 @@
         <v>568</v>
       </c>
       <c r="C535" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>569</v>
       </c>
       <c r="C536" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,7 +6279,7 @@
         <v>570</v>
       </c>
       <c r="C537" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -6290,7 +6290,7 @@
         <v>571</v>
       </c>
       <c r="C538" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -6301,7 +6301,7 @@
         <v>572</v>
       </c>
       <c r="C539" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>573</v>
       </c>
       <c r="C540" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,7 +6323,7 @@
         <v>574</v>
       </c>
       <c r="C541" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -6334,7 +6334,7 @@
         <v>575</v>
       </c>
       <c r="C542" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
         <v>576</v>
       </c>
       <c r="C543" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -6356,7 +6356,7 @@
         <v>577</v>
       </c>
       <c r="C544" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -6367,7 +6367,7 @@
         <v>578</v>
       </c>
       <c r="C545" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -6378,7 +6378,7 @@
         <v>579</v>
       </c>
       <c r="C546" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -6389,7 +6389,7 @@
         <v>580</v>
       </c>
       <c r="C547" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -6400,7 +6400,7 @@
         <v>581</v>
       </c>
       <c r="C548" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -6411,7 +6411,7 @@
         <v>582</v>
       </c>
       <c r="C549" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -6422,7 +6422,7 @@
         <v>583</v>
       </c>
       <c r="C550" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
         <v>584</v>
       </c>
       <c r="C551" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -6444,7 +6444,7 @@
         <v>586</v>
       </c>
       <c r="C552" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -6455,7 +6455,7 @@
         <v>587</v>
       </c>
       <c r="C553" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,7 +6466,7 @@
         <v>588</v>
       </c>
       <c r="C554" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -6477,7 +6477,7 @@
         <v>589</v>
       </c>
       <c r="C555" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -6488,7 +6488,7 @@
         <v>590</v>
       </c>
       <c r="C556" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -6499,7 +6499,7 @@
         <v>591</v>
       </c>
       <c r="C557" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -6510,7 +6510,7 @@
         <v>592</v>
       </c>
       <c r="C558" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
         <v>593</v>
       </c>
       <c r="C559" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -6532,7 +6532,7 @@
         <v>594</v>
       </c>
       <c r="C560" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -6543,7 +6543,7 @@
         <v>595</v>
       </c>
       <c r="C561" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -6554,7 +6554,7 @@
         <v>596</v>
       </c>
       <c r="C562" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
         <v>597</v>
       </c>
       <c r="C563" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
         <v>598</v>
       </c>
       <c r="C564" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
         <v>599</v>
       </c>
       <c r="C565" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -6598,7 +6598,7 @@
         <v>600</v>
       </c>
       <c r="C566" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,7 +6609,7 @@
         <v>601</v>
       </c>
       <c r="C567" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>602</v>
       </c>
       <c r="C568" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -6631,7 +6631,7 @@
         <v>603</v>
       </c>
       <c r="C569" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -6642,7 +6642,7 @@
         <v>604</v>
       </c>
       <c r="C570" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -6653,7 +6653,7 @@
         <v>605</v>
       </c>
       <c r="C571" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>606</v>
       </c>
       <c r="C572" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -6675,7 +6675,7 @@
         <v>607</v>
       </c>
       <c r="C573" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -6686,7 +6686,7 @@
         <v>608</v>
       </c>
       <c r="C574" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -6697,7 +6697,7 @@
         <v>609</v>
       </c>
       <c r="C575" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -6708,7 +6708,7 @@
         <v>610</v>
       </c>
       <c r="C576" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>670</v>
       </c>
       <c r="C577" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -6730,7 +6730,7 @@
         <v>611</v>
       </c>
       <c r="C578" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -6741,7 +6741,7 @@
         <v>612</v>
       </c>
       <c r="C579" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,7 +6752,7 @@
         <v>613</v>
       </c>
       <c r="C580" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -6763,7 +6763,7 @@
         <v>614</v>
       </c>
       <c r="C581" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -6774,7 +6774,7 @@
         <v>615</v>
       </c>
       <c r="C582" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -6785,7 +6785,7 @@
         <v>616</v>
       </c>
       <c r="C583" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -6796,7 +6796,7 @@
         <v>617</v>
       </c>
       <c r="C584" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -6807,7 +6807,7 @@
         <v>618</v>
       </c>
       <c r="C585" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -6818,7 +6818,7 @@
         <v>619</v>
       </c>
       <c r="C586" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -6829,7 +6829,7 @@
         <v>621</v>
       </c>
       <c r="C587" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -6840,7 +6840,7 @@
         <v>622</v>
       </c>
       <c r="C588" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -6851,7 +6851,7 @@
         <v>623</v>
       </c>
       <c r="C589" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
         <v>624</v>
       </c>
       <c r="C590" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,7 +6873,7 @@
         <v>625</v>
       </c>
       <c r="C591" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
         <v>626</v>
       </c>
       <c r="C592" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,7 +6895,7 @@
         <v>627</v>
       </c>
       <c r="C593" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -6906,7 +6906,7 @@
         <v>628</v>
       </c>
       <c r="C594" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,7 +6917,7 @@
         <v>629</v>
       </c>
       <c r="C595" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -6928,7 +6928,7 @@
         <v>630</v>
       </c>
       <c r="C596" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -6939,7 +6939,7 @@
         <v>325</v>
       </c>
       <c r="C597" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,7 +6950,7 @@
         <v>632</v>
       </c>
       <c r="C598" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -6961,7 +6961,7 @@
         <v>633</v>
       </c>
       <c r="C599" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -6972,7 +6972,7 @@
         <v>634</v>
       </c>
       <c r="C600" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -6983,7 +6983,7 @@
         <v>635</v>
       </c>
       <c r="C601" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -6994,7 +6994,7 @@
         <v>636</v>
       </c>
       <c r="C602" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -7005,7 +7005,7 @@
         <v>637</v>
       </c>
       <c r="C603" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>638</v>
       </c>
       <c r="C604" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -7027,7 +7027,7 @@
         <v>639</v>
       </c>
       <c r="C605" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,7 +7038,7 @@
         <v>640</v>
       </c>
       <c r="C606" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,7 +7049,7 @@
         <v>641</v>
       </c>
       <c r="C607" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -7060,7 +7060,7 @@
         <v>642</v>
       </c>
       <c r="C608" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -7071,7 +7071,7 @@
         <v>643</v>
       </c>
       <c r="C609" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -7082,7 +7082,7 @@
         <v>644</v>
       </c>
       <c r="C610" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -7093,7 +7093,7 @@
         <v>188</v>
       </c>
       <c r="C611" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -7104,7 +7104,7 @@
         <v>645</v>
       </c>
       <c r="C612" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,7 +7115,7 @@
         <v>647</v>
       </c>
       <c r="C613" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,7 +7126,7 @@
         <v>648</v>
       </c>
       <c r="C614" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,7 +7137,7 @@
         <v>649</v>
       </c>
       <c r="C615" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,7 +7148,7 @@
         <v>650</v>
       </c>
       <c r="C616" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,7 +7159,7 @@
         <v>651</v>
       </c>
       <c r="C617" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>652</v>
       </c>
       <c r="C618" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,7 +7181,7 @@
         <v>653</v>
       </c>
       <c r="C619" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
         <v>654</v>
       </c>
       <c r="C620" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v>655</v>
       </c>
       <c r="C621" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -7214,7 +7214,7 @@
         <v>657</v>
       </c>
       <c r="C622" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -7225,7 +7225,7 @@
         <v>658</v>
       </c>
       <c r="C623" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -7236,7 +7236,7 @@
         <v>659</v>
       </c>
       <c r="C624" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,7 +7247,7 @@
         <v>660</v>
       </c>
       <c r="C625" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -7258,7 +7258,7 @@
         <v>661</v>
       </c>
       <c r="C626" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -7269,7 +7269,7 @@
         <v>662</v>
       </c>
       <c r="C627" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -7280,7 +7280,7 @@
         <v>663</v>
       </c>
       <c r="C628" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
         <v>664</v>
       </c>
       <c r="C629" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -7302,7 +7302,7 @@
         <v>147</v>
       </c>
       <c r="C630" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/marijuana applicants test data - correct matches.xlsx
+++ b/data/marijuana applicants test data - correct matches.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$630</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$629</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="6">
   <si>
     <t>Exact</t>
   </si>
@@ -362,11 +362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C630"/>
+  <dimension ref="A1:C629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A593" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A630" sqref="A630"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7197,10 +7197,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B621">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C621" t="s">
         <v>0</v>
@@ -7208,10 +7208,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B622">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C622" t="s">
         <v>0</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B623">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C623" t="s">
         <v>0</v>
@@ -7230,10 +7230,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B624">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C624" t="s">
         <v>0</v>
@@ -7241,10 +7241,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B625">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C625" t="s">
         <v>0</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B626">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C626" t="s">
         <v>0</v>
@@ -7263,10 +7263,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B627">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C627" t="s">
         <v>0</v>
@@ -7274,10 +7274,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B628">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C628" t="s">
         <v>0</v>
@@ -7285,28 +7285,17 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>744</v>
+        <v>160</v>
       </c>
       <c r="B629">
-        <v>664</v>
+        <v>147</v>
       </c>
       <c r="C629" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630">
-        <v>160</v>
-      </c>
-      <c r="B630">
-        <v>147</v>
-      </c>
-      <c r="C630" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C630"/>
+  <autoFilter ref="A1:C629"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/marijuana applicants test data - correct matches.xlsx
+++ b/data/marijuana applicants test data - correct matches.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\CS410-Project\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11535" windowHeight="10260"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$629</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$628</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="6">
   <si>
     <t>Exact</t>
   </si>
@@ -354,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,11 +357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C629"/>
+  <dimension ref="A1:C628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A629" sqref="A629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1953,7 +1948,7 @@
         <v>160</v>
       </c>
       <c r="B144">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -7283,19 +7278,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629">
-        <v>160</v>
-      </c>
-      <c r="B629">
-        <v>147</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C629"/>
+  <autoFilter ref="A1:C628"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/marijuana applicants test data - correct matches.xlsx
+++ b/data/marijuana applicants test data - correct matches.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\CS410-Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11535" windowHeight="10260"/>
   </bookViews>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="7">
   <si>
     <t>Exact</t>
   </si>
@@ -40,6 +45,9 @@
   </si>
   <si>
     <t>Record_ID_list_2</t>
+  </si>
+  <si>
+    <t>Zip5 Exact</t>
   </si>
 </sst>
 </file>
@@ -349,7 +357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -357,11 +365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C628"/>
+  <dimension ref="A1:C631"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A592" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A629" sqref="A629"/>
+      <pane ySplit="1" topLeftCell="A621" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C630" sqref="C630:C631"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7278,6 +7286,39 @@
         <v>0</v>
       </c>
     </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>196</v>
+      </c>
+      <c r="B629">
+        <v>666</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>306</v>
+      </c>
+      <c r="B630">
+        <v>555</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>616</v>
+      </c>
+      <c r="B631">
+        <v>284</v>
+      </c>
+      <c r="C631" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C628"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
